--- a/public/ticketPriceCB.xlsx
+++ b/public/ticketPriceCB.xlsx
@@ -1,24 +1,112 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\new\htdocs\utrance-railway\public\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="22">
+  <si>
+    <t>Maradana</t>
+  </si>
+  <si>
+    <t>Colombo Fort</t>
+  </si>
+  <si>
+    <t>Ragama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gampaha </t>
+  </si>
+  <si>
+    <t>Veyangoda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polgahawela </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rambukkana </t>
+  </si>
+  <si>
+    <t>Peradeniya</t>
+  </si>
+  <si>
+    <t>Nawalapitiya</t>
+  </si>
+  <si>
+    <t>Hatton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nanu Oya </t>
+  </si>
+  <si>
+    <t>Bandarawela</t>
+  </si>
+  <si>
+    <t>Ella</t>
+  </si>
+  <si>
+    <t>Badulla</t>
+  </si>
+  <si>
+    <t>First class</t>
+  </si>
+  <si>
+    <t>Second class</t>
+  </si>
+  <si>
+    <t>Third class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maradana </t>
+  </si>
+  <si>
+    <t>Gampaha</t>
+  </si>
+  <si>
+    <t>Polgahawela</t>
+  </si>
+  <si>
+    <t>Rambukkana</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nawalapitiya</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202122"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -44,14 +132,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -66,39 +172,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +239,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -177,177 +283,1269 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="P53" sqref="P53"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" customWidth="1"/>
+    <col min="5" max="7" width="10.21875" customWidth="1"/>
+    <col min="8" max="10" width="11.21875" customWidth="1"/>
+    <col min="11" max="11" width="14.5546875" customWidth="1"/>
+    <col min="12" max="12" width="11.21875" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" customWidth="1"/>
+    <col min="14" max="14" width="16" customWidth="1"/>
+    <col min="15" max="15" width="12.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>60</v>
+      </c>
+      <c r="D7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <v>40</v>
+      </c>
+      <c r="D8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9">
+        <v>30</v>
+      </c>
+      <c r="D9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>70</v>
+      </c>
+      <c r="D11">
+        <v>60</v>
+      </c>
+      <c r="E11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>50</v>
+      </c>
+      <c r="D12">
+        <v>40</v>
+      </c>
+      <c r="E12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <v>40</v>
+      </c>
+      <c r="D13">
+        <v>30</v>
+      </c>
+      <c r="E13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>80</v>
+      </c>
+      <c r="D15">
+        <v>70</v>
+      </c>
+      <c r="E15">
+        <v>60</v>
+      </c>
+      <c r="F15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>60</v>
+      </c>
+      <c r="D16">
+        <v>50</v>
+      </c>
+      <c r="E16">
+        <v>40</v>
+      </c>
+      <c r="F16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>50</v>
+      </c>
+      <c r="D17">
+        <v>40</v>
+      </c>
+      <c r="E17">
+        <v>30</v>
+      </c>
+      <c r="F17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19">
+        <v>90</v>
+      </c>
+      <c r="D19">
+        <v>80</v>
+      </c>
+      <c r="E19">
+        <v>70</v>
+      </c>
+      <c r="F19">
+        <v>60</v>
+      </c>
+      <c r="G19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20">
+        <v>70</v>
+      </c>
+      <c r="D20">
+        <v>60</v>
+      </c>
+      <c r="E20">
+        <v>50</v>
+      </c>
+      <c r="F20">
+        <v>40</v>
+      </c>
+      <c r="G20">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21">
+        <v>60</v>
+      </c>
+      <c r="D21">
+        <v>50</v>
+      </c>
+      <c r="E21">
+        <v>40</v>
+      </c>
+      <c r="F21">
+        <v>30</v>
+      </c>
+      <c r="G21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23">
+        <v>100</v>
+      </c>
+      <c r="D23">
+        <v>90</v>
+      </c>
+      <c r="E23">
+        <v>80</v>
+      </c>
+      <c r="F23">
+        <v>70</v>
+      </c>
+      <c r="G23">
+        <v>60</v>
+      </c>
+      <c r="H23">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24">
+        <v>80</v>
+      </c>
+      <c r="D24">
+        <v>70</v>
+      </c>
+      <c r="E24">
+        <v>60</v>
+      </c>
+      <c r="F24">
+        <v>50</v>
+      </c>
+      <c r="G24">
+        <v>40</v>
+      </c>
+      <c r="H24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25">
+        <v>70</v>
+      </c>
+      <c r="D25">
+        <v>60</v>
+      </c>
+      <c r="E25">
+        <v>50</v>
+      </c>
+      <c r="F25">
+        <v>40</v>
+      </c>
+      <c r="G25">
+        <v>30</v>
+      </c>
+      <c r="H25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27">
+        <v>110</v>
+      </c>
+      <c r="D27">
+        <v>100</v>
+      </c>
+      <c r="E27">
+        <v>90</v>
+      </c>
+      <c r="F27">
+        <v>80</v>
+      </c>
+      <c r="G27">
+        <v>70</v>
+      </c>
+      <c r="H27">
+        <v>60</v>
+      </c>
+      <c r="I27">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28">
+        <v>90</v>
+      </c>
+      <c r="D28">
+        <v>80</v>
+      </c>
+      <c r="E28">
+        <v>70</v>
+      </c>
+      <c r="F28">
+        <v>60</v>
+      </c>
+      <c r="G28">
+        <v>50</v>
+      </c>
+      <c r="H28">
+        <v>40</v>
+      </c>
+      <c r="I28">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29">
+        <v>80</v>
+      </c>
+      <c r="D29">
+        <v>70</v>
+      </c>
+      <c r="E29">
+        <v>60</v>
+      </c>
+      <c r="F29">
+        <v>50</v>
+      </c>
+      <c r="G29">
+        <v>40</v>
+      </c>
+      <c r="H29">
+        <v>30</v>
+      </c>
+      <c r="I29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31">
+        <v>120</v>
+      </c>
+      <c r="D31">
+        <v>110</v>
+      </c>
+      <c r="E31">
+        <v>100</v>
+      </c>
+      <c r="F31">
+        <v>90</v>
+      </c>
+      <c r="G31">
+        <v>80</v>
+      </c>
+      <c r="H31">
+        <v>70</v>
+      </c>
+      <c r="I31">
+        <v>60</v>
+      </c>
+      <c r="J31">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32">
+        <v>100</v>
+      </c>
+      <c r="D32">
+        <v>90</v>
+      </c>
+      <c r="E32">
+        <v>80</v>
+      </c>
+      <c r="F32">
+        <v>70</v>
+      </c>
+      <c r="G32">
+        <v>60</v>
+      </c>
+      <c r="H32">
+        <v>50</v>
+      </c>
+      <c r="I32">
+        <v>40</v>
+      </c>
+      <c r="J32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33">
+        <v>90</v>
+      </c>
+      <c r="D33">
+        <v>80</v>
+      </c>
+      <c r="E33">
+        <v>70</v>
+      </c>
+      <c r="F33">
+        <v>60</v>
+      </c>
+      <c r="G33">
+        <v>50</v>
+      </c>
+      <c r="H33">
+        <v>40</v>
+      </c>
+      <c r="I33">
+        <v>30</v>
+      </c>
+      <c r="J33">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35">
+        <v>130</v>
+      </c>
+      <c r="D35">
+        <v>120</v>
+      </c>
+      <c r="E35">
+        <v>110</v>
+      </c>
+      <c r="F35">
+        <v>100</v>
+      </c>
+      <c r="G35">
+        <v>90</v>
+      </c>
+      <c r="H35">
+        <v>80</v>
+      </c>
+      <c r="I35">
+        <v>70</v>
+      </c>
+      <c r="J35">
+        <v>60</v>
+      </c>
+      <c r="K35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36">
+        <v>110</v>
+      </c>
+      <c r="D36">
+        <v>100</v>
+      </c>
+      <c r="E36">
+        <v>90</v>
+      </c>
+      <c r="F36">
+        <v>80</v>
+      </c>
+      <c r="G36">
+        <v>70</v>
+      </c>
+      <c r="H36">
+        <v>60</v>
+      </c>
+      <c r="I36">
+        <v>50</v>
+      </c>
+      <c r="J36">
+        <v>40</v>
+      </c>
+      <c r="K36">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37">
+        <v>100</v>
+      </c>
+      <c r="D37">
+        <v>90</v>
+      </c>
+      <c r="E37">
+        <v>80</v>
+      </c>
+      <c r="F37">
+        <v>70</v>
+      </c>
+      <c r="G37">
+        <v>60</v>
+      </c>
+      <c r="H37">
+        <v>50</v>
+      </c>
+      <c r="I37">
+        <v>40</v>
+      </c>
+      <c r="J37">
+        <v>30</v>
+      </c>
+      <c r="K37">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39">
+        <v>140</v>
+      </c>
+      <c r="D39">
+        <v>130</v>
+      </c>
+      <c r="E39">
+        <v>120</v>
+      </c>
+      <c r="F39">
+        <v>110</v>
+      </c>
+      <c r="G39">
+        <v>100</v>
+      </c>
+      <c r="H39">
+        <v>90</v>
+      </c>
+      <c r="I39">
+        <v>80</v>
+      </c>
+      <c r="J39">
+        <v>70</v>
+      </c>
+      <c r="K39">
+        <v>60</v>
+      </c>
+      <c r="L39">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40">
+        <v>120</v>
+      </c>
+      <c r="D40">
+        <v>110</v>
+      </c>
+      <c r="E40">
+        <v>100</v>
+      </c>
+      <c r="F40">
+        <v>90</v>
+      </c>
+      <c r="G40">
+        <v>80</v>
+      </c>
+      <c r="H40">
+        <v>70</v>
+      </c>
+      <c r="I40">
+        <v>60</v>
+      </c>
+      <c r="J40">
+        <v>50</v>
+      </c>
+      <c r="K40">
+        <v>40</v>
+      </c>
+      <c r="L40">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41">
+        <v>110</v>
+      </c>
+      <c r="D41">
+        <v>100</v>
+      </c>
+      <c r="E41">
+        <v>90</v>
+      </c>
+      <c r="F41">
+        <v>80</v>
+      </c>
+      <c r="G41">
+        <v>70</v>
+      </c>
+      <c r="H41">
+        <v>60</v>
+      </c>
+      <c r="I41">
+        <v>50</v>
+      </c>
+      <c r="J41">
+        <v>40</v>
+      </c>
+      <c r="K41">
+        <v>30</v>
+      </c>
+      <c r="L41">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43">
+        <v>150</v>
+      </c>
+      <c r="D43">
+        <v>140</v>
+      </c>
+      <c r="E43">
+        <v>130</v>
+      </c>
+      <c r="F43">
+        <v>120</v>
+      </c>
+      <c r="G43">
+        <v>110</v>
+      </c>
+      <c r="H43">
+        <v>100</v>
+      </c>
+      <c r="I43">
+        <v>90</v>
+      </c>
+      <c r="J43">
+        <v>80</v>
+      </c>
+      <c r="K43">
+        <v>70</v>
+      </c>
+      <c r="L43">
+        <v>60</v>
+      </c>
+      <c r="M43">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44">
+        <v>130</v>
+      </c>
+      <c r="D44">
+        <v>120</v>
+      </c>
+      <c r="E44">
+        <v>110</v>
+      </c>
+      <c r="F44">
+        <v>100</v>
+      </c>
+      <c r="G44">
+        <v>90</v>
+      </c>
+      <c r="H44">
+        <v>80</v>
+      </c>
+      <c r="I44">
+        <v>70</v>
+      </c>
+      <c r="J44">
+        <v>60</v>
+      </c>
+      <c r="K44">
+        <v>50</v>
+      </c>
+      <c r="L44">
+        <v>40</v>
+      </c>
+      <c r="M44">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45">
+        <v>120</v>
+      </c>
+      <c r="D45">
+        <v>110</v>
+      </c>
+      <c r="E45">
+        <v>100</v>
+      </c>
+      <c r="F45">
+        <v>90</v>
+      </c>
+      <c r="G45">
+        <v>80</v>
+      </c>
+      <c r="H45">
+        <v>70</v>
+      </c>
+      <c r="I45">
+        <v>60</v>
+      </c>
+      <c r="J45">
+        <v>50</v>
+      </c>
+      <c r="K45">
+        <v>40</v>
+      </c>
+      <c r="L45">
+        <v>30</v>
+      </c>
+      <c r="M45">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47">
+        <v>160</v>
+      </c>
+      <c r="D47">
+        <v>150</v>
+      </c>
+      <c r="E47">
+        <v>140</v>
+      </c>
+      <c r="F47">
+        <v>130</v>
+      </c>
+      <c r="G47">
+        <v>120</v>
+      </c>
+      <c r="H47">
+        <v>110</v>
+      </c>
+      <c r="I47">
+        <v>100</v>
+      </c>
+      <c r="J47">
+        <v>90</v>
+      </c>
+      <c r="K47">
+        <v>80</v>
+      </c>
+      <c r="L47">
+        <v>70</v>
+      </c>
+      <c r="M47">
+        <v>60</v>
+      </c>
+      <c r="N47">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48">
+        <v>140</v>
+      </c>
+      <c r="D48">
+        <v>130</v>
+      </c>
+      <c r="E48">
+        <v>120</v>
+      </c>
+      <c r="F48">
+        <v>110</v>
+      </c>
+      <c r="G48">
+        <v>100</v>
+      </c>
+      <c r="H48">
+        <v>90</v>
+      </c>
+      <c r="I48">
+        <v>80</v>
+      </c>
+      <c r="J48">
+        <v>70</v>
+      </c>
+      <c r="K48">
+        <v>60</v>
+      </c>
+      <c r="L48">
+        <v>50</v>
+      </c>
+      <c r="M48">
+        <v>40</v>
+      </c>
+      <c r="N48">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49">
+        <v>130</v>
+      </c>
+      <c r="D49">
+        <v>120</v>
+      </c>
+      <c r="E49">
+        <v>110</v>
+      </c>
+      <c r="F49">
+        <v>100</v>
+      </c>
+      <c r="G49">
+        <v>90</v>
+      </c>
+      <c r="H49">
+        <v>80</v>
+      </c>
+      <c r="I49">
+        <v>70</v>
+      </c>
+      <c r="J49">
+        <v>60</v>
+      </c>
+      <c r="K49">
+        <v>50</v>
+      </c>
+      <c r="L49">
+        <v>40</v>
+      </c>
+      <c r="M49">
+        <v>30</v>
+      </c>
+      <c r="N49">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51">
+        <v>170</v>
+      </c>
+      <c r="D51">
+        <v>160</v>
+      </c>
+      <c r="E51">
+        <v>150</v>
+      </c>
+      <c r="F51">
+        <v>140</v>
+      </c>
+      <c r="G51">
+        <v>130</v>
+      </c>
+      <c r="H51">
+        <v>120</v>
+      </c>
+      <c r="I51">
+        <v>110</v>
+      </c>
+      <c r="J51">
+        <v>100</v>
+      </c>
+      <c r="K51">
+        <v>90</v>
+      </c>
+      <c r="L51">
+        <v>80</v>
+      </c>
+      <c r="M51">
+        <v>70</v>
+      </c>
+      <c r="N51">
+        <v>60</v>
+      </c>
+      <c r="O51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52">
+        <v>150</v>
+      </c>
+      <c r="D52">
+        <v>140</v>
+      </c>
+      <c r="E52">
+        <v>130</v>
+      </c>
+      <c r="F52">
+        <v>120</v>
+      </c>
+      <c r="G52">
+        <v>110</v>
+      </c>
+      <c r="H52">
+        <v>100</v>
+      </c>
+      <c r="I52">
+        <v>90</v>
+      </c>
+      <c r="J52">
+        <v>80</v>
+      </c>
+      <c r="K52">
+        <v>70</v>
+      </c>
+      <c r="L52">
+        <v>60</v>
+      </c>
+      <c r="M52">
+        <v>50</v>
+      </c>
+      <c r="N52">
+        <v>40</v>
+      </c>
+      <c r="O52">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53">
+        <v>140</v>
+      </c>
+      <c r="D53">
+        <v>130</v>
+      </c>
+      <c r="E53">
+        <v>120</v>
+      </c>
+      <c r="F53">
+        <v>110</v>
+      </c>
+      <c r="G53">
+        <v>100</v>
+      </c>
+      <c r="H53">
+        <v>90</v>
+      </c>
+      <c r="I53">
+        <v>80</v>
+      </c>
+      <c r="J53">
+        <v>70</v>
+      </c>
+      <c r="K53">
+        <v>60</v>
+      </c>
+      <c r="L53">
+        <v>50</v>
+      </c>
+      <c r="M53">
+        <v>40</v>
+      </c>
+      <c r="N53">
+        <v>30</v>
+      </c>
+      <c r="O53">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>